--- a/storage/exports/deelnemers.xlsx
+++ b/storage/exports/deelnemers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="417">
   <si>
     <t>id</t>
   </si>
@@ -53,1192 +53,1195 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>Filiberto</t>
-  </si>
-  <si>
-    <t>Emard</t>
-  </si>
-  <si>
-    <t>1981-01-26</t>
-  </si>
-  <si>
-    <t>haley.wilmer@example.org</t>
-  </si>
-  <si>
-    <t>Elmer Isle</t>
-  </si>
-  <si>
-    <t>22158</t>
-  </si>
-  <si>
-    <t>Port Geovanyton</t>
-  </si>
-  <si>
-    <t>5.195.87.156</t>
-  </si>
-  <si>
-    <t>2016-11-02 18:56:26</t>
-  </si>
-  <si>
-    <t>Lela</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>1980-05-05</t>
-  </si>
-  <si>
-    <t>btillman@example.com</t>
-  </si>
-  <si>
-    <t>Fritsch Bridge</t>
-  </si>
-  <si>
-    <t>62200</t>
-  </si>
-  <si>
-    <t>Port Wilhelmine</t>
-  </si>
-  <si>
-    <t>106.103.231.211</t>
-  </si>
-  <si>
-    <t>Rowena</t>
-  </si>
-  <si>
-    <t>Beatty</t>
-  </si>
-  <si>
-    <t>2008-11-06</t>
-  </si>
-  <si>
-    <t>schmitt.orland@example.com</t>
-  </si>
-  <si>
-    <t>Ezequiel Locks</t>
-  </si>
-  <si>
-    <t>08652-7766</t>
-  </si>
-  <si>
-    <t>Oriefurt</t>
-  </si>
-  <si>
-    <t>154.205.194.124</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Powlowski</t>
-  </si>
-  <si>
-    <t>2011-10-02</t>
-  </si>
-  <si>
-    <t>nnikolaus@example.com</t>
-  </si>
-  <si>
-    <t>Jacobson Ferry</t>
-  </si>
-  <si>
-    <t>98147</t>
-  </si>
-  <si>
-    <t>North Marcelluschester</t>
-  </si>
-  <si>
-    <t>173.240.141.191</t>
-  </si>
-  <si>
-    <t>Yasmeen</t>
-  </si>
-  <si>
-    <t>Pfeffer</t>
-  </si>
-  <si>
-    <t>2004-07-05</t>
-  </si>
-  <si>
-    <t>abigail94@example.com</t>
-  </si>
-  <si>
-    <t>Hills Orchard</t>
-  </si>
-  <si>
-    <t>92898-4812</t>
-  </si>
-  <si>
-    <t>Dashawnshire</t>
-  </si>
-  <si>
-    <t>122.209.107.26</t>
-  </si>
-  <si>
-    <t>Betty</t>
-  </si>
-  <si>
-    <t>Gerhold</t>
-  </si>
-  <si>
-    <t>2014-08-07</t>
-  </si>
-  <si>
-    <t>glover.dave@example.com</t>
-  </si>
-  <si>
-    <t>Walter Spur</t>
-  </si>
-  <si>
-    <t>14354-8091</t>
-  </si>
-  <si>
-    <t>Zelmabury</t>
-  </si>
-  <si>
-    <t>110.3.100.78</t>
-  </si>
-  <si>
-    <t>Keara</t>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Torphy</t>
+  </si>
+  <si>
+    <t>2011-06-22</t>
+  </si>
+  <si>
+    <t>trisha.carter@example.org</t>
+  </si>
+  <si>
+    <t>Myrtle Lights</t>
+  </si>
+  <si>
+    <t>80599-6018</t>
+  </si>
+  <si>
+    <t>Dariostad</t>
+  </si>
+  <si>
+    <t>237.164.242.178</t>
+  </si>
+  <si>
+    <t>2016-11-03 09:47:12</t>
+  </si>
+  <si>
+    <t>Eulalia</t>
+  </si>
+  <si>
+    <t>Labadie</t>
+  </si>
+  <si>
+    <t>1977-02-11</t>
+  </si>
+  <si>
+    <t>alicia.pacocha@example.com</t>
+  </si>
+  <si>
+    <t>Aliya Loaf</t>
+  </si>
+  <si>
+    <t>99649-4847</t>
+  </si>
+  <si>
+    <t>East Tanya</t>
+  </si>
+  <si>
+    <t>231.209.35.6</t>
+  </si>
+  <si>
+    <t>Elbert</t>
+  </si>
+  <si>
+    <t>Abbott</t>
+  </si>
+  <si>
+    <t>1973-12-26</t>
+  </si>
+  <si>
+    <t>towne.eleonore@example.org</t>
+  </si>
+  <si>
+    <t>Dustin Skyway</t>
+  </si>
+  <si>
+    <t>40308-4277</t>
+  </si>
+  <si>
+    <t>Port Michelleview</t>
+  </si>
+  <si>
+    <t>152.255.177.20</t>
+  </si>
+  <si>
+    <t>Ansel</t>
+  </si>
+  <si>
+    <t>Baumbach</t>
+  </si>
+  <si>
+    <t>1972-03-07</t>
+  </si>
+  <si>
+    <t>fwalker@example.com</t>
+  </si>
+  <si>
+    <t>Jaskolski Land</t>
+  </si>
+  <si>
+    <t>37021-4077</t>
+  </si>
+  <si>
+    <t>New Joshuahstad</t>
+  </si>
+  <si>
+    <t>59.49.255.120</t>
+  </si>
+  <si>
+    <t>Durward</t>
+  </si>
+  <si>
+    <t>O'Reilly</t>
+  </si>
+  <si>
+    <t>1975-03-23</t>
+  </si>
+  <si>
+    <t>feest.ora@example.com</t>
+  </si>
+  <si>
+    <t>O'Kon Common</t>
+  </si>
+  <si>
+    <t>29028</t>
+  </si>
+  <si>
+    <t>Kutchside</t>
+  </si>
+  <si>
+    <t>13.237.13.23</t>
+  </si>
+  <si>
+    <t>Kurtis</t>
+  </si>
+  <si>
+    <t>Donnelly</t>
+  </si>
+  <si>
+    <t>1985-09-21</t>
+  </si>
+  <si>
+    <t>rrussel@example.org</t>
+  </si>
+  <si>
+    <t>Gianni Vista</t>
+  </si>
+  <si>
+    <t>34954-9645</t>
+  </si>
+  <si>
+    <t>Carolville</t>
+  </si>
+  <si>
+    <t>17.109.225.245</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Zboncak</t>
+  </si>
+  <si>
+    <t>2012-04-09</t>
+  </si>
+  <si>
+    <t>blanda.nathaniel@example.net</t>
+  </si>
+  <si>
+    <t>Jaskolski Plains</t>
+  </si>
+  <si>
+    <t>27999-6114</t>
+  </si>
+  <si>
+    <t>Alberthaville</t>
+  </si>
+  <si>
+    <t>6.94.205.232</t>
+  </si>
+  <si>
+    <t>Keven</t>
+  </si>
+  <si>
+    <t>Dare</t>
+  </si>
+  <si>
+    <t>2007-01-14</t>
+  </si>
+  <si>
+    <t>kendall46@example.org</t>
+  </si>
+  <si>
+    <t>Weber Key</t>
+  </si>
+  <si>
+    <t>18742</t>
+  </si>
+  <si>
+    <t>Lake Jackybury</t>
+  </si>
+  <si>
+    <t>247.201.80.162</t>
+  </si>
+  <si>
+    <t>Ethelyn</t>
+  </si>
+  <si>
+    <t>Ziemann</t>
+  </si>
+  <si>
+    <t>1994-10-10</t>
+  </si>
+  <si>
+    <t>dkertzmann@example.com</t>
+  </si>
+  <si>
+    <t>Armstrong Forest</t>
+  </si>
+  <si>
+    <t>11325-0934</t>
+  </si>
+  <si>
+    <t>Lake Zellaborough</t>
+  </si>
+  <si>
+    <t>71.3.98.62</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>Cronin</t>
+  </si>
+  <si>
+    <t>1988-07-31</t>
+  </si>
+  <si>
+    <t>neva86@example.com</t>
+  </si>
+  <si>
+    <t>Santa Trail</t>
+  </si>
+  <si>
+    <t>05599</t>
+  </si>
+  <si>
+    <t>South Ibrahimtown</t>
+  </si>
+  <si>
+    <t>239.23.198.163</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Kling</t>
+  </si>
+  <si>
+    <t>1988-05-17</t>
+  </si>
+  <si>
+    <t>marlin57@example.net</t>
+  </si>
+  <si>
+    <t>Alejandra Park</t>
+  </si>
+  <si>
+    <t>47173</t>
+  </si>
+  <si>
+    <t>New Jackeline</t>
+  </si>
+  <si>
+    <t>195.173.229.98</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>1979-09-15</t>
+  </si>
+  <si>
+    <t>schmitt.giovanny@example.org</t>
+  </si>
+  <si>
+    <t>Keon Fort</t>
+  </si>
+  <si>
+    <t>60847</t>
+  </si>
+  <si>
+    <t>West Angus</t>
+  </si>
+  <si>
+    <t>110.210.171.187</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Botsford</t>
+  </si>
+  <si>
+    <t>1985-03-08</t>
+  </si>
+  <si>
+    <t>ostracke@example.net</t>
+  </si>
+  <si>
+    <t>Leannon Stravenue</t>
+  </si>
+  <si>
+    <t>59567</t>
+  </si>
+  <si>
+    <t>Glovershire</t>
+  </si>
+  <si>
+    <t>33.16.93.86</t>
+  </si>
+  <si>
+    <t>Tyree</t>
+  </si>
+  <si>
+    <t>Berge</t>
+  </si>
+  <si>
+    <t>1983-04-25</t>
+  </si>
+  <si>
+    <t>dillan73@example.org</t>
+  </si>
+  <si>
+    <t>Arden Parks</t>
+  </si>
+  <si>
+    <t>80292</t>
+  </si>
+  <si>
+    <t>North Nikitabury</t>
+  </si>
+  <si>
+    <t>252.132.180.156</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Fadel</t>
+  </si>
+  <si>
+    <t>1985-08-26</t>
+  </si>
+  <si>
+    <t>schuppe.jordane@example.org</t>
+  </si>
+  <si>
+    <t>Elliot Mount</t>
+  </si>
+  <si>
+    <t>32486</t>
+  </si>
+  <si>
+    <t>New Hayleyville</t>
+  </si>
+  <si>
+    <t>99.33.38.12</t>
+  </si>
+  <si>
+    <t>Micah</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>1979-04-06</t>
+  </si>
+  <si>
+    <t>dkoch@example.com</t>
+  </si>
+  <si>
+    <t>Farrell Turnpike</t>
+  </si>
+  <si>
+    <t>87607</t>
+  </si>
+  <si>
+    <t>South Minnie</t>
+  </si>
+  <si>
+    <t>97.228.124.180</t>
+  </si>
+  <si>
+    <t>Derick</t>
+  </si>
+  <si>
+    <t>Rau</t>
+  </si>
+  <si>
+    <t>1991-09-21</t>
+  </si>
+  <si>
+    <t>ziemann.garland@example.com</t>
+  </si>
+  <si>
+    <t>Simonis Run</t>
+  </si>
+  <si>
+    <t>12007-8770</t>
+  </si>
+  <si>
+    <t>Armandotown</t>
+  </si>
+  <si>
+    <t>52.141.168.233</t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>Purdy</t>
+  </si>
+  <si>
+    <t>1984-04-15</t>
+  </si>
+  <si>
+    <t>enola64@example.com</t>
+  </si>
+  <si>
+    <t>Padberg Road</t>
+  </si>
+  <si>
+    <t>43464</t>
+  </si>
+  <si>
+    <t>Maxiebury</t>
+  </si>
+  <si>
+    <t>180.6.240.202</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>Muller</t>
+  </si>
+  <si>
+    <t>1987-07-21</t>
+  </si>
+  <si>
+    <t>purdy.octavia@example.org</t>
+  </si>
+  <si>
+    <t>Dillon Villages</t>
+  </si>
+  <si>
+    <t>22580</t>
+  </si>
+  <si>
+    <t>East Ted</t>
+  </si>
+  <si>
+    <t>128.18.234.147</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>Sawayn</t>
+  </si>
+  <si>
+    <t>2006-08-30</t>
+  </si>
+  <si>
+    <t>brandt48@example.net</t>
+  </si>
+  <si>
+    <t>Bridget Camp</t>
+  </si>
+  <si>
+    <t>94882-8716</t>
+  </si>
+  <si>
+    <t>Uniquebury</t>
+  </si>
+  <si>
+    <t>76.179.95.48</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Connelly</t>
+  </si>
+  <si>
+    <t>1991-07-03</t>
+  </si>
+  <si>
+    <t>magnolia.zemlak@example.org</t>
+  </si>
+  <si>
+    <t>Hilpert Causeway</t>
+  </si>
+  <si>
+    <t>26962</t>
+  </si>
+  <si>
+    <t>Mraztown</t>
+  </si>
+  <si>
+    <t>172.238.64.249</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Bauch</t>
+  </si>
+  <si>
+    <t>2001-02-10</t>
+  </si>
+  <si>
+    <t>hodkiewicz.vernon@example.net</t>
+  </si>
+  <si>
+    <t>Hermann Harbors</t>
+  </si>
+  <si>
+    <t>69642</t>
+  </si>
+  <si>
+    <t>Quintonland</t>
+  </si>
+  <si>
+    <t>194.71.133.105</t>
+  </si>
+  <si>
+    <t>Triston</t>
+  </si>
+  <si>
+    <t>2001-07-10</t>
+  </si>
+  <si>
+    <t>danny91@example.com</t>
+  </si>
+  <si>
+    <t>Golden Fords</t>
+  </si>
+  <si>
+    <t>51987-0341</t>
+  </si>
+  <si>
+    <t>Jewellside</t>
+  </si>
+  <si>
+    <t>214.25.57.234</t>
+  </si>
+  <si>
+    <t>Tressa</t>
+  </si>
+  <si>
+    <t>Pfannerstill</t>
+  </si>
+  <si>
+    <t>1974-06-13</t>
+  </si>
+  <si>
+    <t>aturcotte@example.org</t>
+  </si>
+  <si>
+    <t>Batz Square</t>
+  </si>
+  <si>
+    <t>80744</t>
+  </si>
+  <si>
+    <t>Greenstad</t>
+  </si>
+  <si>
+    <t>95.194.162.78</t>
+  </si>
+  <si>
+    <t>Margarete</t>
+  </si>
+  <si>
+    <t>Jacobi</t>
+  </si>
+  <si>
+    <t>2008-03-12</t>
+  </si>
+  <si>
+    <t>zieme.audrey@example.com</t>
+  </si>
+  <si>
+    <t>Green Burgs</t>
+  </si>
+  <si>
+    <t>42625</t>
+  </si>
+  <si>
+    <t>Omaport</t>
+  </si>
+  <si>
+    <t>169.146.117.130</t>
+  </si>
+  <si>
+    <t>Haleigh</t>
+  </si>
+  <si>
+    <t>Kessler</t>
+  </si>
+  <si>
+    <t>1996-03-21</t>
+  </si>
+  <si>
+    <t>deontae.schamberger@example.net</t>
+  </si>
+  <si>
+    <t>Rocio Road</t>
+  </si>
+  <si>
+    <t>68038-6009</t>
+  </si>
+  <si>
+    <t>Bartellshire</t>
+  </si>
+  <si>
+    <t>21.68.166.120</t>
+  </si>
+  <si>
+    <t>Maiya</t>
+  </si>
+  <si>
+    <t>Eichmann</t>
+  </si>
+  <si>
+    <t>2007-02-05</t>
+  </si>
+  <si>
+    <t>kianna.mckenzie@example.org</t>
+  </si>
+  <si>
+    <t>Zechariah Neck</t>
+  </si>
+  <si>
+    <t>36252-7265</t>
+  </si>
+  <si>
+    <t>Port Leslieview</t>
+  </si>
+  <si>
+    <t>201.127.107.64</t>
+  </si>
+  <si>
+    <t>Rickie</t>
+  </si>
+  <si>
+    <t>Smitham</t>
+  </si>
+  <si>
+    <t>2004-02-04</t>
+  </si>
+  <si>
+    <t>collier.tremayne@example.net</t>
+  </si>
+  <si>
+    <t>McCullough Rapid</t>
+  </si>
+  <si>
+    <t>40005-4451</t>
+  </si>
+  <si>
+    <t>Aleneburgh</t>
+  </si>
+  <si>
+    <t>5.179.224.202</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Hahn</t>
+  </si>
+  <si>
+    <t>1987-04-20</t>
+  </si>
+  <si>
+    <t>esther78@example.net</t>
+  </si>
+  <si>
+    <t>Bridgette Square</t>
+  </si>
+  <si>
+    <t>93208</t>
+  </si>
+  <si>
+    <t>Braunstad</t>
+  </si>
+  <si>
+    <t>221.192.10.19</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>1982-10-28</t>
+  </si>
+  <si>
+    <t>mann.sherwood@example.org</t>
+  </si>
+  <si>
+    <t>Jaiden Junction</t>
+  </si>
+  <si>
+    <t>64391</t>
+  </si>
+  <si>
+    <t>Lake Junius</t>
+  </si>
+  <si>
+    <t>220.76.168.103</t>
+  </si>
+  <si>
+    <t>Rosella</t>
+  </si>
+  <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>2001-10-08</t>
+  </si>
+  <si>
+    <t>rwillms@example.com</t>
+  </si>
+  <si>
+    <t>Kreiger Spurs</t>
+  </si>
+  <si>
+    <t>90850</t>
+  </si>
+  <si>
+    <t>Bayerborough</t>
+  </si>
+  <si>
+    <t>170.142.117.178</t>
+  </si>
+  <si>
+    <t>Alana</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>2005-06-01</t>
+  </si>
+  <si>
+    <t>kennedi.frami@example.net</t>
+  </si>
+  <si>
+    <t>Rice Street</t>
+  </si>
+  <si>
+    <t>85702</t>
+  </si>
+  <si>
+    <t>Trantowview</t>
+  </si>
+  <si>
+    <t>74.217.28.199</t>
+  </si>
+  <si>
+    <t>Alvis</t>
+  </si>
+  <si>
+    <t>Jast</t>
+  </si>
+  <si>
+    <t>1982-03-18</t>
+  </si>
+  <si>
+    <t>pwaters@example.net</t>
+  </si>
+  <si>
+    <t>Hettinger Hollow</t>
+  </si>
+  <si>
+    <t>40537</t>
+  </si>
+  <si>
+    <t>New Montanaview</t>
+  </si>
+  <si>
+    <t>186.128.177.200</t>
+  </si>
+  <si>
+    <t>Ima</t>
+  </si>
+  <si>
+    <t>Rolfson</t>
+  </si>
+  <si>
+    <t>2008-08-03</t>
+  </si>
+  <si>
+    <t>egoodwin@example.net</t>
+  </si>
+  <si>
+    <t>Bell Ridges</t>
+  </si>
+  <si>
+    <t>31957</t>
+  </si>
+  <si>
+    <t>Riceland</t>
+  </si>
+  <si>
+    <t>181.107.137.4</t>
+  </si>
+  <si>
+    <t>Abbey</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>1973-11-05</t>
+  </si>
+  <si>
+    <t>turner.beier@example.net</t>
+  </si>
+  <si>
+    <t>Schimmel Islands</t>
+  </si>
+  <si>
+    <t>06619</t>
+  </si>
+  <si>
+    <t>Lake Webster</t>
+  </si>
+  <si>
+    <t>211.40.220.64</t>
+  </si>
+  <si>
+    <t>Viviane</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>2009-02-04</t>
+  </si>
+  <si>
+    <t>wiza.izabella@example.com</t>
+  </si>
+  <si>
+    <t>Dillan Knolls</t>
+  </si>
+  <si>
+    <t>47616</t>
+  </si>
+  <si>
+    <t>Lake Gianniside</t>
+  </si>
+  <si>
+    <t>62.243.194.195</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>1976-02-03</t>
+  </si>
+  <si>
+    <t>ireynolds@example.com</t>
+  </si>
+  <si>
+    <t>Deja Knolls</t>
+  </si>
+  <si>
+    <t>80276</t>
+  </si>
+  <si>
+    <t>New Izabellaton</t>
+  </si>
+  <si>
+    <t>45.179.216.22</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>Wiegand</t>
+  </si>
+  <si>
+    <t>1972-09-07</t>
+  </si>
+  <si>
+    <t>leora.paucek@example.org</t>
+  </si>
+  <si>
+    <t>Cassidy Lodge</t>
+  </si>
+  <si>
+    <t>83025-5188</t>
+  </si>
+  <si>
+    <t>Lake Emily</t>
+  </si>
+  <si>
+    <t>180.241.204.169</t>
+  </si>
+  <si>
+    <t>D'angelo</t>
+  </si>
+  <si>
+    <t>Bruen</t>
+  </si>
+  <si>
+    <t>1995-08-28</t>
+  </si>
+  <si>
+    <t>major.bednar@example.org</t>
+  </si>
+  <si>
+    <t>Terry Road</t>
+  </si>
+  <si>
+    <t>19988</t>
+  </si>
+  <si>
+    <t>Schadenhaven</t>
+  </si>
+  <si>
+    <t>210.248.147.47</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Effertz</t>
+  </si>
+  <si>
+    <t>1970-12-29</t>
+  </si>
+  <si>
+    <t>davis.berneice@example.net</t>
+  </si>
+  <si>
+    <t>Zander Bridge</t>
+  </si>
+  <si>
+    <t>50665-0476</t>
+  </si>
+  <si>
+    <t>Lake Garfieldbury</t>
+  </si>
+  <si>
+    <t>80.125.28.79</t>
+  </si>
+  <si>
+    <t>Serenity</t>
+  </si>
+  <si>
+    <t>Homenick</t>
+  </si>
+  <si>
+    <t>1988-03-01</t>
+  </si>
+  <si>
+    <t>hcorkery@example.org</t>
+  </si>
+  <si>
+    <t>Krista Viaduct</t>
+  </si>
+  <si>
+    <t>95826</t>
+  </si>
+  <si>
+    <t>West Blancheburgh</t>
+  </si>
+  <si>
+    <t>61.225.190.119</t>
+  </si>
+  <si>
+    <t>Towne</t>
+  </si>
+  <si>
+    <t>1991-01-13</t>
+  </si>
+  <si>
+    <t>gritchie@example.org</t>
+  </si>
+  <si>
+    <t>Armstrong Viaduct</t>
+  </si>
+  <si>
+    <t>63640-0188</t>
+  </si>
+  <si>
+    <t>Donnellfort</t>
+  </si>
+  <si>
+    <t>213.1.100.188</t>
+  </si>
+  <si>
+    <t>Mireille</t>
   </si>
   <si>
     <t>Koss</t>
   </si>
   <si>
-    <t>2013-06-02</t>
-  </si>
-  <si>
-    <t>estelle.conn@example.net</t>
-  </si>
-  <si>
-    <t>Ellen Extensions</t>
-  </si>
-  <si>
-    <t>07494-1817</t>
-  </si>
-  <si>
-    <t>Lake Gaylordmouth</t>
-  </si>
-  <si>
-    <t>124.186.54.63</t>
-  </si>
-  <si>
-    <t>Enos</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <t>2000-09-02</t>
-  </si>
-  <si>
-    <t>favian30@example.net</t>
-  </si>
-  <si>
-    <t>Koch Parkways</t>
-  </si>
-  <si>
-    <t>73989</t>
-  </si>
-  <si>
-    <t>Lake Deionport</t>
-  </si>
-  <si>
-    <t>241.109.95.196</t>
-  </si>
-  <si>
-    <t>Camilla</t>
-  </si>
-  <si>
-    <t>Fisher</t>
-  </si>
-  <si>
-    <t>1993-04-17</t>
-  </si>
-  <si>
-    <t>alexander.considine@example.net</t>
-  </si>
-  <si>
-    <t>Schinner Glens</t>
-  </si>
-  <si>
-    <t>77907-3380</t>
-  </si>
-  <si>
-    <t>Lake Dustyton</t>
-  </si>
-  <si>
-    <t>97.55.148.28</t>
-  </si>
-  <si>
-    <t>Delilah</t>
-  </si>
-  <si>
-    <t>Raynor</t>
-  </si>
-  <si>
-    <t>2004-09-29</t>
-  </si>
-  <si>
-    <t>renner.wendy@example.net</t>
-  </si>
-  <si>
-    <t>Williamson Plains</t>
-  </si>
-  <si>
-    <t>87658</t>
-  </si>
-  <si>
-    <t>South Felicialand</t>
-  </si>
-  <si>
-    <t>50.102.66.33</t>
-  </si>
-  <si>
-    <t>Celine</t>
-  </si>
-  <si>
-    <t>Jerde</t>
-  </si>
-  <si>
-    <t>1983-11-06</t>
-  </si>
-  <si>
-    <t>grady.hollie@example.net</t>
-  </si>
-  <si>
-    <t>Zoey Throughway</t>
-  </si>
-  <si>
-    <t>02541-5637</t>
-  </si>
-  <si>
-    <t>Port Una</t>
-  </si>
-  <si>
-    <t>115.227.89.252</t>
-  </si>
-  <si>
-    <t>Greyson</t>
-  </si>
-  <si>
-    <t>McLaughlin</t>
-  </si>
-  <si>
-    <t>2008-10-24</t>
-  </si>
-  <si>
-    <t>wilburn.oconner@example.net</t>
-  </si>
-  <si>
-    <t>Madison Alley</t>
-  </si>
-  <si>
-    <t>97659-5662</t>
-  </si>
-  <si>
-    <t>South Albert</t>
-  </si>
-  <si>
-    <t>219.113.75.11</t>
-  </si>
-  <si>
-    <t>Wilber</t>
-  </si>
-  <si>
-    <t>Kuphal</t>
-  </si>
-  <si>
-    <t>1997-07-08</t>
-  </si>
-  <si>
-    <t>greenholt.kale@example.net</t>
-  </si>
-  <si>
-    <t>Reed Shores</t>
-  </si>
-  <si>
-    <t>33980-2588</t>
-  </si>
-  <si>
-    <t>Andreaneville</t>
-  </si>
-  <si>
-    <t>235.124.97.226</t>
-  </si>
-  <si>
-    <t>Lexi</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>2009-01-08</t>
-  </si>
-  <si>
-    <t>jeramie20@example.org</t>
-  </si>
-  <si>
-    <t>Keara Tunnel</t>
-  </si>
-  <si>
-    <t>97523</t>
-  </si>
-  <si>
-    <t>New Susan</t>
-  </si>
-  <si>
-    <t>44.172.141.170</t>
-  </si>
-  <si>
-    <t>Wilfrid</t>
-  </si>
-  <si>
-    <t>Abbott</t>
-  </si>
-  <si>
-    <t>1985-12-01</t>
-  </si>
-  <si>
-    <t>rhand@example.com</t>
-  </si>
-  <si>
-    <t>Daugherty Fords</t>
-  </si>
-  <si>
-    <t>89266-8061</t>
-  </si>
-  <si>
-    <t>Audraside</t>
-  </si>
-  <si>
-    <t>95.0.238.21</t>
-  </si>
-  <si>
-    <t>Hertha</t>
-  </si>
-  <si>
-    <t>Gutmann</t>
-  </si>
-  <si>
-    <t>1983-11-16</t>
-  </si>
-  <si>
-    <t>cassin.pierre@example.net</t>
-  </si>
-  <si>
-    <t>Chet Drive</t>
-  </si>
-  <si>
-    <t>60103</t>
-  </si>
-  <si>
-    <t>Garfieldborough</t>
-  </si>
-  <si>
-    <t>155.130.29.135</t>
-  </si>
-  <si>
-    <t>Jazmin</t>
-  </si>
-  <si>
-    <t>Zboncak</t>
-  </si>
-  <si>
-    <t>1974-04-08</t>
-  </si>
-  <si>
-    <t>modesto21@example.com</t>
-  </si>
-  <si>
-    <t>Frami Expressway</t>
-  </si>
-  <si>
-    <t>41398-9526</t>
-  </si>
-  <si>
-    <t>Sydneefurt</t>
-  </si>
-  <si>
-    <t>49.142.231.5</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Jacobson</t>
-  </si>
-  <si>
-    <t>1999-02-27</t>
-  </si>
-  <si>
-    <t>howell.andreane@example.net</t>
-  </si>
-  <si>
-    <t>Schulist Knolls</t>
-  </si>
-  <si>
-    <t>81134-3996</t>
-  </si>
-  <si>
-    <t>Lake Shanaburgh</t>
-  </si>
-  <si>
-    <t>214.76.126.114</t>
-  </si>
-  <si>
-    <t>Kieran</t>
-  </si>
-  <si>
-    <t>Hyatt</t>
-  </si>
-  <si>
-    <t>2014-08-12</t>
-  </si>
-  <si>
-    <t>seamus.cremin@example.net</t>
-  </si>
-  <si>
-    <t>Marvin Harbors</t>
-  </si>
-  <si>
-    <t>31155</t>
-  </si>
-  <si>
-    <t>Marciaberg</t>
-  </si>
-  <si>
-    <t>220.253.88.0</t>
-  </si>
-  <si>
-    <t>Kathryn</t>
-  </si>
-  <si>
-    <t>Kassulke</t>
-  </si>
-  <si>
-    <t>1998-10-10</t>
-  </si>
-  <si>
-    <t>davis.alessandro@example.com</t>
-  </si>
-  <si>
-    <t>Rice Place</t>
-  </si>
-  <si>
-    <t>20636-5383</t>
-  </si>
-  <si>
-    <t>New Aurelia</t>
-  </si>
-  <si>
-    <t>12.116.169.89</t>
-  </si>
-  <si>
-    <t>Zachariah</t>
-  </si>
-  <si>
-    <t>Johnston</t>
-  </si>
-  <si>
-    <t>2011-03-02</t>
-  </si>
-  <si>
-    <t>paucek.davonte@example.org</t>
-  </si>
-  <si>
-    <t>Simonis Landing</t>
-  </si>
-  <si>
-    <t>04053</t>
-  </si>
-  <si>
-    <t>Stehrfort</t>
-  </si>
-  <si>
-    <t>117.59.39.86</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Mertz</t>
-  </si>
-  <si>
-    <t>1971-10-23</t>
-  </si>
-  <si>
-    <t>katlyn92@example.net</t>
-  </si>
-  <si>
-    <t>Wisoky Point</t>
-  </si>
-  <si>
-    <t>47796</t>
-  </si>
-  <si>
-    <t>North Toney</t>
-  </si>
-  <si>
-    <t>39.169.160.196</t>
-  </si>
-  <si>
-    <t>Alison</t>
-  </si>
-  <si>
-    <t>Muller</t>
-  </si>
-  <si>
-    <t>2007-01-25</t>
-  </si>
-  <si>
-    <t>josiah67@example.net</t>
-  </si>
-  <si>
-    <t>Walsh Fort</t>
-  </si>
-  <si>
-    <t>09489-8756</t>
-  </si>
-  <si>
-    <t>Schaeferfort</t>
-  </si>
-  <si>
-    <t>13.41.162.126</t>
-  </si>
-  <si>
-    <t>Susanna</t>
-  </si>
-  <si>
-    <t>Sipes</t>
-  </si>
-  <si>
-    <t>1987-02-13</t>
-  </si>
-  <si>
-    <t>cweissnat@example.net</t>
-  </si>
-  <si>
-    <t>Arnaldo Summit</t>
-  </si>
-  <si>
-    <t>39664-0353</t>
-  </si>
-  <si>
-    <t>New Reba</t>
-  </si>
-  <si>
-    <t>47.149.156.133</t>
-  </si>
-  <si>
-    <t>Mohammed</t>
-  </si>
-  <si>
-    <t>Reichert</t>
-  </si>
-  <si>
-    <t>1998-10-08</t>
-  </si>
-  <si>
-    <t>theresa70@example.com</t>
-  </si>
-  <si>
-    <t>Hahn Centers</t>
-  </si>
-  <si>
-    <t>48774</t>
-  </si>
-  <si>
-    <t>Port Lindsay</t>
-  </si>
-  <si>
-    <t>89.228.136.91</t>
-  </si>
-  <si>
-    <t>Enid</t>
-  </si>
-  <si>
-    <t>O'Kon</t>
-  </si>
-  <si>
-    <t>2013-10-17</t>
-  </si>
-  <si>
-    <t>bridgette.green@example.com</t>
-  </si>
-  <si>
-    <t>Gerhold Radial</t>
-  </si>
-  <si>
-    <t>36096-1031</t>
-  </si>
-  <si>
-    <t>Kirlinmouth</t>
-  </si>
-  <si>
-    <t>249.55.121.57</t>
-  </si>
-  <si>
-    <t>Brittany</t>
-  </si>
-  <si>
-    <t>1996-03-05</t>
-  </si>
-  <si>
-    <t>suzanne08@example.org</t>
-  </si>
-  <si>
-    <t>Glenna Roads</t>
-  </si>
-  <si>
-    <t>20590</t>
-  </si>
-  <si>
-    <t>South Einarfurt</t>
-  </si>
-  <si>
-    <t>218.76.7.31</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Boyer</t>
-  </si>
-  <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
-    <t>mireille.mann@example.org</t>
-  </si>
-  <si>
-    <t>Sophia Ways</t>
-  </si>
-  <si>
-    <t>00402</t>
-  </si>
-  <si>
-    <t>South Aubree</t>
-  </si>
-  <si>
-    <t>251.10.168.13</t>
-  </si>
-  <si>
-    <t>Asha</t>
-  </si>
-  <si>
-    <t>McKenzie</t>
-  </si>
-  <si>
-    <t>1972-08-16</t>
-  </si>
-  <si>
-    <t>adeline82@example.org</t>
-  </si>
-  <si>
-    <t>Lebsack Glens</t>
-  </si>
-  <si>
-    <t>08363</t>
-  </si>
-  <si>
-    <t>South Wainoburgh</t>
-  </si>
-  <si>
-    <t>143.53.56.222</t>
-  </si>
-  <si>
-    <t>Linwood</t>
-  </si>
-  <si>
-    <t>1995-04-24</t>
-  </si>
-  <si>
-    <t>lola.kassulke@example.net</t>
-  </si>
-  <si>
-    <t>Hassan Run</t>
-  </si>
-  <si>
-    <t>02769</t>
-  </si>
-  <si>
-    <t>Newtonside</t>
-  </si>
-  <si>
-    <t>45.161.29.72</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t>Deckow</t>
-  </si>
-  <si>
-    <t>1972-08-12</t>
-  </si>
-  <si>
-    <t>rowland50@example.org</t>
-  </si>
-  <si>
-    <t>Humberto Points</t>
-  </si>
-  <si>
-    <t>62494</t>
-  </si>
-  <si>
-    <t>Rahsaanstad</t>
-  </si>
-  <si>
-    <t>248.143.132.142</t>
-  </si>
-  <si>
-    <t>Davonte</t>
-  </si>
-  <si>
-    <t>Barrows</t>
-  </si>
-  <si>
-    <t>1976-08-21</t>
-  </si>
-  <si>
-    <t>dach.alek@example.org</t>
-  </si>
-  <si>
-    <t>Greenfelder Terrace</t>
-  </si>
-  <si>
-    <t>67103-8277</t>
-  </si>
-  <si>
-    <t>New Edwinahaven</t>
-  </si>
-  <si>
-    <t>155.27.252.192</t>
-  </si>
-  <si>
-    <t>Nannie</t>
-  </si>
-  <si>
-    <t>Huels</t>
-  </si>
-  <si>
-    <t>2007-06-27</t>
-  </si>
-  <si>
-    <t>vconnelly@example.com</t>
-  </si>
-  <si>
-    <t>Dicki Junctions</t>
-  </si>
-  <si>
-    <t>15144</t>
-  </si>
-  <si>
-    <t>Gerardoside</t>
-  </si>
-  <si>
-    <t>151.100.89.196</t>
-  </si>
-  <si>
-    <t>Milford</t>
-  </si>
-  <si>
-    <t>Stiedemann</t>
-  </si>
-  <si>
-    <t>2004-02-14</t>
-  </si>
-  <si>
-    <t>oconnell.michaela@example.org</t>
-  </si>
-  <si>
-    <t>Lehner Mountains</t>
-  </si>
-  <si>
-    <t>09555-5420</t>
-  </si>
-  <si>
-    <t>Uptonbury</t>
-  </si>
-  <si>
-    <t>66.21.180.147</t>
-  </si>
-  <si>
-    <t>Itzel</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>1979-03-09</t>
-  </si>
-  <si>
-    <t>judah.leffler@example.org</t>
-  </si>
-  <si>
-    <t>Bernadette Park</t>
-  </si>
-  <si>
-    <t>06085-2908</t>
-  </si>
-  <si>
-    <t>Lake Hassanview</t>
-  </si>
-  <si>
-    <t>168.134.16.37</t>
-  </si>
-  <si>
-    <t>Beth</t>
-  </si>
-  <si>
-    <t>Herman</t>
-  </si>
-  <si>
-    <t>2004-06-24</t>
-  </si>
-  <si>
-    <t>ismith@example.com</t>
-  </si>
-  <si>
-    <t>Grady Island</t>
-  </si>
-  <si>
-    <t>18428</t>
-  </si>
-  <si>
-    <t>North Trentonchester</t>
-  </si>
-  <si>
-    <t>95.231.176.47</t>
-  </si>
-  <si>
-    <t>Jakayla</t>
-  </si>
-  <si>
-    <t>2012-12-08</t>
-  </si>
-  <si>
-    <t>kkub@example.org</t>
-  </si>
-  <si>
-    <t>Leffler Plains</t>
-  </si>
-  <si>
-    <t>67557</t>
-  </si>
-  <si>
-    <t>Ledatown</t>
-  </si>
-  <si>
-    <t>53.205.167.162</t>
-  </si>
-  <si>
-    <t>Seth</t>
-  </si>
-  <si>
-    <t>Shields</t>
-  </si>
-  <si>
-    <t>1997-07-15</t>
-  </si>
-  <si>
-    <t>remington.mayer@example.com</t>
-  </si>
-  <si>
-    <t>Candelario Locks</t>
-  </si>
-  <si>
-    <t>19878</t>
-  </si>
-  <si>
-    <t>North Daniela</t>
-  </si>
-  <si>
-    <t>80.112.188.172</t>
-  </si>
-  <si>
-    <t>Zita</t>
-  </si>
-  <si>
-    <t>Mueller</t>
-  </si>
-  <si>
-    <t>1997-02-09</t>
-  </si>
-  <si>
-    <t>reichert.eulah@example.org</t>
-  </si>
-  <si>
-    <t>D'Amore Mission</t>
-  </si>
-  <si>
-    <t>50870</t>
-  </si>
-  <si>
-    <t>Boganville</t>
-  </si>
-  <si>
-    <t>141.108.162.101</t>
-  </si>
-  <si>
-    <t>Golda</t>
-  </si>
-  <si>
-    <t>Veum</t>
-  </si>
-  <si>
-    <t>1983-11-29</t>
-  </si>
-  <si>
-    <t>wolff.carolyne@example.net</t>
-  </si>
-  <si>
-    <t>Roselyn Cape</t>
-  </si>
-  <si>
-    <t>92614</t>
-  </si>
-  <si>
-    <t>Cedrickchester</t>
-  </si>
-  <si>
-    <t>44.229.202.98</t>
-  </si>
-  <si>
-    <t>Delphia</t>
-  </si>
-  <si>
-    <t>Bednar</t>
-  </si>
-  <si>
-    <t>1975-07-23</t>
-  </si>
-  <si>
-    <t>jadon57@example.org</t>
-  </si>
-  <si>
-    <t>Wuckert Wall</t>
-  </si>
-  <si>
-    <t>45932-3601</t>
-  </si>
-  <si>
-    <t>Laronhaven</t>
-  </si>
-  <si>
-    <t>178.142.151.208</t>
-  </si>
-  <si>
-    <t>Torey</t>
-  </si>
-  <si>
-    <t>Oberbrunner</t>
-  </si>
-  <si>
-    <t>1997-01-22</t>
-  </si>
-  <si>
-    <t>macejkovic.aryanna@example.net</t>
-  </si>
-  <si>
-    <t>Jeramy Roads</t>
-  </si>
-  <si>
-    <t>53388</t>
-  </si>
-  <si>
-    <t>Larueview</t>
-  </si>
-  <si>
-    <t>83.144.111.226</t>
-  </si>
-  <si>
-    <t>Annette</t>
-  </si>
-  <si>
-    <t>Gleichner</t>
-  </si>
-  <si>
-    <t>1991-01-10</t>
-  </si>
-  <si>
-    <t>rebeca36@example.com</t>
-  </si>
-  <si>
-    <t>Rickey Creek</t>
-  </si>
-  <si>
-    <t>02885-6568</t>
-  </si>
-  <si>
-    <t>Port Alysa</t>
-  </si>
-  <si>
-    <t>164.39.116.11</t>
-  </si>
-  <si>
-    <t>Fleta</t>
-  </si>
-  <si>
-    <t>DuBuque</t>
-  </si>
-  <si>
-    <t>2008-01-15</t>
-  </si>
-  <si>
-    <t>gleason.caitlyn@example.org</t>
-  </si>
-  <si>
-    <t>Romaguera Causeway</t>
-  </si>
-  <si>
-    <t>91162</t>
-  </si>
-  <si>
-    <t>New Rogelioburgh</t>
-  </si>
-  <si>
-    <t>114.33.104.249</t>
-  </si>
-  <si>
-    <t>Minerva</t>
-  </si>
-  <si>
-    <t>Runolfsson</t>
-  </si>
-  <si>
-    <t>2006-06-17</t>
-  </si>
-  <si>
-    <t>vella.toy@example.com</t>
-  </si>
-  <si>
-    <t>Shields Hills</t>
-  </si>
-  <si>
-    <t>38961-1084</t>
-  </si>
-  <si>
-    <t>Stephonfurt</t>
-  </si>
-  <si>
-    <t>42.255.27.11</t>
-  </si>
-  <si>
-    <t>Tristian</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>2006-06-28</t>
-  </si>
-  <si>
-    <t>alyson.harris@example.net</t>
-  </si>
-  <si>
-    <t>Wiegand Field</t>
-  </si>
-  <si>
-    <t>16216</t>
-  </si>
-  <si>
-    <t>Dickitown</t>
-  </si>
-  <si>
-    <t>37.81.207.116</t>
-  </si>
-  <si>
-    <t>Owen</t>
-  </si>
-  <si>
-    <t>2005-12-05</t>
-  </si>
-  <si>
-    <t>pschinner@example.net</t>
-  </si>
-  <si>
-    <t>Klocko Springs</t>
-  </si>
-  <si>
-    <t>81667</t>
-  </si>
-  <si>
-    <t>Charleystad</t>
-  </si>
-  <si>
-    <t>96.48.223.112</t>
-  </si>
-  <si>
-    <t>Arch</t>
-  </si>
-  <si>
-    <t>Prohaska</t>
-  </si>
-  <si>
-    <t>1972-09-02</t>
-  </si>
-  <si>
-    <t>elmore50@example.org</t>
-  </si>
-  <si>
-    <t>Carter Hill</t>
-  </si>
-  <si>
-    <t>24500</t>
-  </si>
-  <si>
-    <t>North Matilda</t>
-  </si>
-  <si>
-    <t>131.169.139.58</t>
-  </si>
-  <si>
-    <t>Alicia</t>
-  </si>
-  <si>
-    <t>2015-06-03</t>
-  </si>
-  <si>
-    <t>mbarton@example.net</t>
-  </si>
-  <si>
-    <t>Americo Stravenue</t>
-  </si>
-  <si>
-    <t>07642</t>
-  </si>
-  <si>
-    <t>North Loniechester</t>
-  </si>
-  <si>
-    <t>226.141.165.205</t>
-  </si>
-  <si>
-    <t>Lizzie</t>
-  </si>
-  <si>
-    <t>Batz</t>
-  </si>
-  <si>
-    <t>2004-08-16</t>
-  </si>
-  <si>
-    <t>lauren07@example.net</t>
-  </si>
-  <si>
-    <t>Leannon Stravenue</t>
-  </si>
-  <si>
-    <t>95345</t>
-  </si>
-  <si>
-    <t>Volkmantown</t>
-  </si>
-  <si>
-    <t>74.16.128.107</t>
+    <t>1974-03-23</t>
+  </si>
+  <si>
+    <t>flangosh@example.org</t>
+  </si>
+  <si>
+    <t>Herta Glens</t>
+  </si>
+  <si>
+    <t>69319</t>
+  </si>
+  <si>
+    <t>South Mae</t>
+  </si>
+  <si>
+    <t>124.107.24.207</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Nader</t>
+  </si>
+  <si>
+    <t>2000-10-12</t>
+  </si>
+  <si>
+    <t>jmckenzie@example.org</t>
+  </si>
+  <si>
+    <t>Powlowski Heights</t>
+  </si>
+  <si>
+    <t>34858</t>
+  </si>
+  <si>
+    <t>Hartmannville</t>
+  </si>
+  <si>
+    <t>140.84.133.243</t>
+  </si>
+  <si>
+    <t>Ebba</t>
+  </si>
+  <si>
+    <t>Mohr</t>
+  </si>
+  <si>
+    <t>2006-07-22</t>
+  </si>
+  <si>
+    <t>dare.irwin@example.org</t>
+  </si>
+  <si>
+    <t>Arno Roads</t>
+  </si>
+  <si>
+    <t>57576-9669</t>
+  </si>
+  <si>
+    <t>Roobland</t>
+  </si>
+  <si>
+    <t>142.19.167.148</t>
+  </si>
+  <si>
+    <t>Erna</t>
+  </si>
+  <si>
+    <t>Konopelski</t>
+  </si>
+  <si>
+    <t>1979-06-10</t>
+  </si>
+  <si>
+    <t>sean66@example.net</t>
+  </si>
+  <si>
+    <t>Michael Throughway</t>
+  </si>
+  <si>
+    <t>75727</t>
+  </si>
+  <si>
+    <t>Cyrilborough</t>
+  </si>
+  <si>
+    <t>59.0.125.124</t>
+  </si>
+  <si>
+    <t>Tracey</t>
+  </si>
+  <si>
+    <t>Koepp</t>
+  </si>
+  <si>
+    <t>2013-10-23</t>
+  </si>
+  <si>
+    <t>trudie.muller@example.net</t>
+  </si>
+  <si>
+    <t>Johnston Ford</t>
+  </si>
+  <si>
+    <t>11551</t>
+  </si>
+  <si>
+    <t>Legrosfort</t>
+  </si>
+  <si>
+    <t>230.81.118.216</t>
+  </si>
+  <si>
+    <t>Reginald</t>
+  </si>
+  <si>
+    <t>Marquardt</t>
+  </si>
+  <si>
+    <t>1998-03-21</t>
+  </si>
+  <si>
+    <t>maybell.ortiz@example.com</t>
+  </si>
+  <si>
+    <t>Karlee Pike</t>
+  </si>
+  <si>
+    <t>76282</t>
+  </si>
+  <si>
+    <t>Osinskiville</t>
+  </si>
+  <si>
+    <t>15.175.197.238</t>
+  </si>
+  <si>
+    <t>Angie</t>
+  </si>
+  <si>
+    <t>1981-11-15</t>
+  </si>
+  <si>
+    <t>wallace89@example.org</t>
+  </si>
+  <si>
+    <t>Roel Place</t>
+  </si>
+  <si>
+    <t>17689-9909</t>
+  </si>
+  <si>
+    <t>Boehmberg</t>
+  </si>
+  <si>
+    <t>12.13.113.31</t>
+  </si>
+  <si>
+    <t>Yadira</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>1999-03-31</t>
+  </si>
+  <si>
+    <t>zdouglas@example.net</t>
+  </si>
+  <si>
+    <t>Nicolas Trail</t>
+  </si>
+  <si>
+    <t>78913</t>
+  </si>
+  <si>
+    <t>Demetrisberg</t>
+  </si>
+  <si>
+    <t>97.106.171.177</t>
   </si>
   <si>
     <t>Robin</t>
@@ -1250,7 +1253,7 @@
     <t>1995-08-10</t>
   </si>
   <si>
-    <t>robindh@gmail.com</t>
+    <t>admin@humo.be</t>
   </si>
   <si>
     <t>Vlinderstraat 22</t>
@@ -1612,12 +1615,12 @@
   <cols>
     <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="37.705078" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="23.422852" bestFit="true" customWidth="true" style="0"/>
@@ -2440,25 +2443,25 @@
         <v>189</v>
       </c>
       <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
         <v>190</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>191</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>192</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>193</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>194</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>195</v>
-      </c>
-      <c r="I24" t="s">
-        <v>196</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
@@ -2472,28 +2475,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
         <v>197</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>198</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>199</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>200</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>201</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>202</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>203</v>
-      </c>
-      <c r="I25" t="s">
-        <v>204</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
@@ -2507,28 +2510,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
         <v>205</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>206</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>207</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>208</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>209</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>210</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>211</v>
-      </c>
-      <c r="I26" t="s">
-        <v>212</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
@@ -2542,28 +2545,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s">
         <v>213</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>214</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>215</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>216</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>217</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>218</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>219</v>
-      </c>
-      <c r="I27" t="s">
-        <v>220</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>
@@ -2577,10 +2580,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
         <v>221</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>222</v>
@@ -2685,25 +2688,25 @@
         <v>244</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s">
         <v>20</v>
@@ -2717,28 +2720,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
         <v>20</v>
@@ -2752,28 +2755,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s">
         <v>20</v>
@@ -2787,28 +2790,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
         <v>20</v>
@@ -2822,28 +2825,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
         <v>20</v>
@@ -2857,28 +2860,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
@@ -2892,28 +2895,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
         <v>20</v>
@@ -2927,28 +2930,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
         <v>20</v>
@@ -2962,28 +2965,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
         <v>20</v>
@@ -2997,28 +3000,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s">
         <v>20</v>
@@ -3032,28 +3035,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K41" t="s">
         <v>20</v>
@@ -3067,28 +3070,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s">
         <v>20</v>
@@ -3102,7 +3105,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
         <v>339</v>
@@ -3280,25 +3283,25 @@
         <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="D48" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H48" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
@@ -3312,28 +3315,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C49" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E49" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H49" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K49" t="s">
         <v>20</v>
@@ -3347,28 +3350,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E50" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F50" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G50" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H50" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I50" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K50" t="s">
         <v>20</v>
@@ -3382,28 +3385,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C51" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D51" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E51" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I51" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K51" t="s">
         <v>20</v>
@@ -3417,28 +3420,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C52" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D52" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G52" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H52" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J52">
         <v>1</v>

--- a/storage/exports/deelnemers.xlsx
+++ b/storage/exports/deelnemers.xlsx
@@ -50,28 +50,28 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>Abigale</t>
-  </si>
-  <si>
-    <t>Monahan</t>
-  </si>
-  <si>
-    <t>2015-01-02</t>
-  </si>
-  <si>
-    <t>xjones@example.org</t>
-  </si>
-  <si>
-    <t>Dooley Union</t>
-  </si>
-  <si>
-    <t>99353</t>
-  </si>
-  <si>
-    <t>Nolanview</t>
-  </si>
-  <si>
-    <t>243.182.187.22</t>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Herzog</t>
+  </si>
+  <si>
+    <t>1995-11-04</t>
+  </si>
+  <si>
+    <t>aaron.abernathy@example.org</t>
+  </si>
+  <si>
+    <t>Welch Camp</t>
+  </si>
+  <si>
+    <t>30258</t>
+  </si>
+  <si>
+    <t>Tyriquefurt</t>
+  </si>
+  <si>
+    <t>22.81.99.233</t>
   </si>
   <si>
     <t>Speeder sheep</t>
@@ -80,28 +80,28 @@
     <t>img/creaties/1.jpg</t>
   </si>
   <si>
-    <t>Kristy</t>
-  </si>
-  <si>
-    <t>Kirlin</t>
-  </si>
-  <si>
-    <t>1997-09-20</t>
-  </si>
-  <si>
-    <t>mueller.gaetano@example.org</t>
-  </si>
-  <si>
-    <t>Ricardo Viaduct</t>
-  </si>
-  <si>
-    <t>15242</t>
-  </si>
-  <si>
-    <t>New Elva</t>
-  </si>
-  <si>
-    <t>152.73.96.227</t>
+    <t>Casper</t>
+  </si>
+  <si>
+    <t>Kreiger</t>
+  </si>
+  <si>
+    <t>2002-08-26</t>
+  </si>
+  <si>
+    <t>duane51@example.org</t>
+  </si>
+  <si>
+    <t>Metz Stream</t>
+  </si>
+  <si>
+    <t>41901-9926</t>
+  </si>
+  <si>
+    <t>Emmerichmouth</t>
+  </si>
+  <si>
+    <t>16.27.132.15</t>
   </si>
   <si>
     <t>Sporza</t>
@@ -110,28 +110,28 @@
     <t>img/creaties/2.jpg</t>
   </si>
   <si>
-    <t>Carlotta</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>2014-12-18</t>
-  </si>
-  <si>
-    <t>dulce03@example.net</t>
-  </si>
-  <si>
-    <t>Ollie Streets</t>
-  </si>
-  <si>
-    <t>33883</t>
-  </si>
-  <si>
-    <t>Tarynchester</t>
-  </si>
-  <si>
-    <t>175.70.169.215</t>
+    <t>Celine</t>
+  </si>
+  <si>
+    <t>Gerhold</t>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+  </si>
+  <si>
+    <t>jaida75@example.net</t>
+  </si>
+  <si>
+    <t>Schulist Parks</t>
+  </si>
+  <si>
+    <t>97005</t>
+  </si>
+  <si>
+    <t>Dillonchester</t>
+  </si>
+  <si>
+    <t>217.68.76.168</t>
   </si>
   <si>
     <t>Lambo</t>
@@ -140,28 +140,28 @@
     <t>img/creaties/3.png</t>
   </si>
   <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>Funk</t>
-  </si>
-  <si>
-    <t>1998-12-28</t>
-  </si>
-  <si>
-    <t>alivia11@example.org</t>
-  </si>
-  <si>
-    <t>Everardo Camp</t>
-  </si>
-  <si>
-    <t>77544</t>
-  </si>
-  <si>
-    <t>Bauchfort</t>
-  </si>
-  <si>
-    <t>234.32.109.102</t>
+    <t>Augusta</t>
+  </si>
+  <si>
+    <t>Ankunding</t>
+  </si>
+  <si>
+    <t>2010-11-22</t>
+  </si>
+  <si>
+    <t>renner.esteban@example.org</t>
+  </si>
+  <si>
+    <t>Erdman Spring</t>
+  </si>
+  <si>
+    <t>52438-3479</t>
+  </si>
+  <si>
+    <t>Loychester</t>
+  </si>
+  <si>
+    <t>168.67.11.177</t>
   </si>
   <si>
     <t>Supersheep</t>
@@ -170,28 +170,28 @@
     <t>img/creaties/4.jpg</t>
   </si>
   <si>
-    <t>Laurianne</t>
-  </si>
-  <si>
-    <t>Kshlerin</t>
-  </si>
-  <si>
-    <t>2003-05-18</t>
-  </si>
-  <si>
-    <t>kautzer.kristoffer@example.net</t>
-  </si>
-  <si>
-    <t>Antonette Station</t>
-  </si>
-  <si>
-    <t>10752-6510</t>
-  </si>
-  <si>
-    <t>New Marcella</t>
-  </si>
-  <si>
-    <t>44.12.107.211</t>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>2004-07-29</t>
+  </si>
+  <si>
+    <t>mariana70@example.org</t>
+  </si>
+  <si>
+    <t>Leonie Dale</t>
+  </si>
+  <si>
+    <t>95939-2298</t>
+  </si>
+  <si>
+    <t>West Rebeccafurt</t>
+  </si>
+  <si>
+    <t>188.251.143.57</t>
   </si>
   <si>
     <t>Just trying to fit in</t>
@@ -200,28 +200,28 @@
     <t>img/creaties/5.jpg</t>
   </si>
   <si>
-    <t>Maud</t>
-  </si>
-  <si>
-    <t>Hoppe</t>
-  </si>
-  <si>
-    <t>2010-11-02</t>
-  </si>
-  <si>
-    <t>katharina14@example.com</t>
-  </si>
-  <si>
-    <t>Conn Key</t>
-  </si>
-  <si>
-    <t>51811</t>
-  </si>
-  <si>
-    <t>New Paolomouth</t>
-  </si>
-  <si>
-    <t>129.201.126.33</t>
+    <t>Immanuel</t>
+  </si>
+  <si>
+    <t>Rosenbaum</t>
+  </si>
+  <si>
+    <t>1987-02-22</t>
+  </si>
+  <si>
+    <t>torey84@example.org</t>
+  </si>
+  <si>
+    <t>Josephine Turnpike</t>
+  </si>
+  <si>
+    <t>67082-8825</t>
+  </si>
+  <si>
+    <t>South Sylvia</t>
+  </si>
+  <si>
+    <t>74.79.15.154</t>
   </si>
   <si>
     <t>Beard contest</t>
@@ -608,8 +608,8 @@
     <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="36.419678" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567139" bestFit="true" customWidth="true" style="0"/>
